--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tlr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7285.20893937075</v>
+        <v>6.615074666666668</v>
       </c>
       <c r="H2">
-        <v>7285.20893937075</v>
+        <v>19.845224</v>
       </c>
       <c r="I2">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469992</v>
       </c>
       <c r="J2">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.06522918415641</v>
+        <v>57.24915866666667</v>
       </c>
       <c r="N2">
-        <v>9.06522918415641</v>
+        <v>171.747476</v>
       </c>
       <c r="O2">
-        <v>0.9048336782776899</v>
+        <v>0.9704198736548433</v>
       </c>
       <c r="P2">
-        <v>0.9048336782776899</v>
+        <v>0.9704198736548435</v>
       </c>
       <c r="Q2">
-        <v>66042.08868986089</v>
+        <v>378.7074591838472</v>
       </c>
       <c r="R2">
-        <v>66042.08868986089</v>
+        <v>3408.367132654625</v>
       </c>
       <c r="S2">
-        <v>0.8893799898472375</v>
+        <v>0.0008652717637894837</v>
       </c>
       <c r="T2">
-        <v>0.8893799898472375</v>
+        <v>0.0008652717637894837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7285.20893937075</v>
+        <v>6.615074666666668</v>
       </c>
       <c r="H3">
-        <v>7285.20893937075</v>
+        <v>19.845224</v>
       </c>
       <c r="I3">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469992</v>
       </c>
       <c r="J3">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.953439883745289</v>
+        <v>1.569166</v>
       </c>
       <c r="N3">
-        <v>0.953439883745289</v>
+        <v>4.707498</v>
       </c>
       <c r="O3">
-        <v>0.09516632172231002</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="P3">
-        <v>0.09516632172231002</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="Q3">
-        <v>6946.008764213788</v>
+        <v>10.38015025439467</v>
       </c>
       <c r="R3">
-        <v>6946.008764213788</v>
+        <v>93.42135228955202</v>
       </c>
       <c r="S3">
-        <v>0.09354097253353079</v>
+        <v>2.371659364295675E-05</v>
       </c>
       <c r="T3">
-        <v>0.09354097253353079</v>
+        <v>2.371659364295675E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>126.58633023565</v>
+        <v>6.615074666666668</v>
       </c>
       <c r="H4">
-        <v>126.58633023565</v>
+        <v>19.845224</v>
       </c>
       <c r="I4">
-        <v>0.01707903761923153</v>
+        <v>0.0008916467884469992</v>
       </c>
       <c r="J4">
-        <v>0.01707903761923153</v>
+        <v>0.0008916467884469989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>9.06522918415641</v>
+        <v>0.1758903333333333</v>
       </c>
       <c r="N4">
-        <v>9.06522918415641</v>
+        <v>0.527671</v>
       </c>
       <c r="O4">
-        <v>0.9048336782776899</v>
+        <v>0.002981484427470275</v>
       </c>
       <c r="P4">
-        <v>0.9048336782776899</v>
+        <v>0.002981484427470276</v>
       </c>
       <c r="Q4">
-        <v>1147.534095167475</v>
+        <v>1.163527688144889</v>
       </c>
       <c r="R4">
-        <v>1147.534095167475</v>
+        <v>10.471749193304</v>
       </c>
       <c r="S4">
-        <v>0.0154536884304523</v>
+        <v>2.658431014558611E-06</v>
       </c>
       <c r="T4">
-        <v>0.0154536884304523</v>
+        <v>2.65843101455861E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.58633023565</v>
+        <v>7285.701009</v>
       </c>
       <c r="H5">
-        <v>126.58633023565</v>
+        <v>21857.103027</v>
       </c>
       <c r="I5">
-        <v>0.01707903761923153</v>
+        <v>0.9820406017477925</v>
       </c>
       <c r="J5">
-        <v>0.01707903761923153</v>
+        <v>0.9820406017477923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.953439883745289</v>
+        <v>57.24915866666667</v>
       </c>
       <c r="N5">
-        <v>0.953439883745289</v>
+        <v>171.747476</v>
       </c>
       <c r="O5">
-        <v>0.09516632172231002</v>
+        <v>0.9704198736548433</v>
       </c>
       <c r="P5">
-        <v>0.09516632172231002</v>
+        <v>0.9704198736548435</v>
       </c>
       <c r="Q5">
-        <v>120.6924559836209</v>
+        <v>417100.2530621344</v>
       </c>
       <c r="R5">
-        <v>120.6924559836209</v>
+        <v>3753902.27755921</v>
       </c>
       <c r="S5">
-        <v>0.001625349188779223</v>
+        <v>0.9529917166720191</v>
       </c>
       <c r="T5">
-        <v>0.001625349188779223</v>
+        <v>0.9529917166720191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7285.701009</v>
+      </c>
+      <c r="H6">
+        <v>21857.103027</v>
+      </c>
+      <c r="I6">
+        <v>0.9820406017477925</v>
+      </c>
+      <c r="J6">
+        <v>0.9820406017477923</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.569166</v>
+      </c>
+      <c r="N6">
+        <v>4.707498</v>
+      </c>
+      <c r="O6">
+        <v>0.02659864191768634</v>
+      </c>
+      <c r="P6">
+        <v>0.02659864191768634</v>
+      </c>
+      <c r="Q6">
+        <v>11432.47430948849</v>
+      </c>
+      <c r="R6">
+        <v>102892.2687853965</v>
+      </c>
+      <c r="S6">
+        <v>0.02612094631451875</v>
+      </c>
+      <c r="T6">
+        <v>0.02612094631451874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7285.701009</v>
+      </c>
+      <c r="H7">
+        <v>21857.103027</v>
+      </c>
+      <c r="I7">
+        <v>0.9820406017477925</v>
+      </c>
+      <c r="J7">
+        <v>0.9820406017477923</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1758903333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.527671</v>
+      </c>
+      <c r="O7">
+        <v>0.002981484427470275</v>
+      </c>
+      <c r="P7">
+        <v>0.002981484427470276</v>
+      </c>
+      <c r="Q7">
+        <v>1281.484379040013</v>
+      </c>
+      <c r="R7">
+        <v>11533.35941136012</v>
+      </c>
+      <c r="S7">
+        <v>0.002927938761254582</v>
+      </c>
+      <c r="T7">
+        <v>0.002927938761254582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>126.6246363333333</v>
+      </c>
+      <c r="H8">
+        <v>379.873909</v>
+      </c>
+      <c r="I8">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="J8">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>57.24915866666667</v>
+      </c>
+      <c r="N8">
+        <v>171.747476</v>
+      </c>
+      <c r="O8">
+        <v>0.9704198736548433</v>
+      </c>
+      <c r="P8">
+        <v>0.9704198736548435</v>
+      </c>
+      <c r="Q8">
+        <v>7249.153896555966</v>
+      </c>
+      <c r="R8">
+        <v>65242.38506900369</v>
+      </c>
+      <c r="S8">
+        <v>0.01656288521903486</v>
+      </c>
+      <c r="T8">
+        <v>0.01656288521903486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>126.6246363333333</v>
+      </c>
+      <c r="H9">
+        <v>379.873909</v>
+      </c>
+      <c r="I9">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="J9">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.569166</v>
+      </c>
+      <c r="N9">
+        <v>4.707498</v>
+      </c>
+      <c r="O9">
+        <v>0.02659864191768634</v>
+      </c>
+      <c r="P9">
+        <v>0.02659864191768634</v>
+      </c>
+      <c r="Q9">
+        <v>198.6950740966313</v>
+      </c>
+      <c r="R9">
+        <v>1788.255666869682</v>
+      </c>
+      <c r="S9">
+        <v>0.0004539790095246358</v>
+      </c>
+      <c r="T9">
+        <v>0.0004539790095246358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>126.6246363333333</v>
+      </c>
+      <c r="H10">
+        <v>379.873909</v>
+      </c>
+      <c r="I10">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="J10">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1758903333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.527671</v>
+      </c>
+      <c r="O10">
+        <v>0.002981484427470275</v>
+      </c>
+      <c r="P10">
+        <v>0.002981484427470276</v>
+      </c>
+      <c r="Q10">
+        <v>22.27204949288211</v>
+      </c>
+      <c r="R10">
+        <v>200.448445435939</v>
+      </c>
+      <c r="S10">
+        <v>5.088723520113531E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.088723520113531E-05</v>
       </c>
     </row>
   </sheetData>
